--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="3360" windowWidth="19575" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="27630" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="A4横2人印刷" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -243,6 +244,12 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -266,12 +273,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -318,60 +319,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>697395</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14907</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線コネクタ 50"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5164620" y="434007"/>
-          <a:ext cx="4169880" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="34925" cmpd="dbl">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -652,45 +599,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="11">
         <v>123</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,7 +667,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
-      <c r="A5" s="13"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="4">
         <v>999999999</v>
       </c>
@@ -764,6 +711,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="27630" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="A4横2人印刷" sheetId="1" r:id="rId1"/>
@@ -20,34 +20,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>部門　コード</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人　コード</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給与支給明細書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>999999999999</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9999年99月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支
+給</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>ＮＮＮＮＮＮ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>部門コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">給与明細書
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999年99月給与　9999年99月99日支給</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,40 +108,44 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="IPA明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <u val="double"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
+      <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -129,12 +160,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,87 +223,78 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -319,6 +341,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="304800"/>
+          <a:ext cx="1790700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380262</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151662</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4413000" y="337032"/>
+          <a:ext cx="1787770" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,132 +709,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:U59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="3.375" customWidth="1"/>
-    <col min="12" max="12" width="3.25" customWidth="1"/>
+    <col min="1" max="19" width="6.625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A2" s="13">
+        <v>9999999999</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="8" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="11">
-        <v>123</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+    <row r="3" spans="1:19" ht="12" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:19" ht="12" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4">
-        <v>999999999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1000000000</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1000000002</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1000000003</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1000000004</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1000000005</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1000000006</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1000000007</v>
-      </c>
+    <row r="5" spans="1:19" ht="12" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
     </row>
-    <row r="21" spans="7:7" ht="12" customHeight="1">
-      <c r="G21" s="1"/>
+    <row r="6" spans="1:19" ht="12" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
+    <row r="9" spans="1:19" ht="9.75" customHeight="1"/>
+    <row r="11" spans="1:19" ht="12" customHeight="1">
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="9.75" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="F1:G2"/>
+  <mergeCells count="10">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22860" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="A4横2人印刷" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>部門　コード</t>
     <rPh sb="0" eb="2">
@@ -77,12 +77,16 @@
     <t>value</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="IPA明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
@@ -127,27 +124,38 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <u val="double"/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
+      <sz val="8"/>
+      <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="IPA明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
-      <sz val="14"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -160,12 +168,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,126 +183,141 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -347,26 +370,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466773</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396372</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線コネクタ 25"/>
+        <xdr:cNvPr id="5" name="直線コネクタ 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="304800"/>
-          <a:ext cx="1790700" cy="0"/>
+          <a:off x="4699590" y="430295"/>
+          <a:ext cx="1955404" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -396,26 +419,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>380262</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126017</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466087</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>151662</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126017</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395686</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 25"/>
+        <xdr:cNvPr id="6" name="直線コネクタ 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4413000" y="337032"/>
-          <a:ext cx="1787770" cy="0"/>
+          <a:off x="4698904" y="392209"/>
+          <a:ext cx="1955404" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -709,160 +732,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="19" width="6.625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
+    <col min="3" max="20" width="6.625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="18" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="17" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A2" s="13">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="B3" s="16">
         <v>9999999999</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="12" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1">
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
-    <row r="4" spans="1:19" ht="12" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="1"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18"/>
     </row>
-    <row r="5" spans="1:19" ht="12" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="12" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+    <row r="7" spans="1:23" ht="9.75" customHeight="1">
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" ht="9.75" customHeight="1"/>
-    <row r="11" spans="1:19" ht="12" customHeight="1">
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="D9" s="7"/>
     </row>
-    <row r="14" spans="1:19" ht="9.75" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1"/>
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:P3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22860" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="A4横2人印刷" sheetId="1" r:id="rId1"/>
@@ -43,19 +43,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>給与支給明細書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>999999999999</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9999年99月</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -79,7 +71,15 @@
   </si>
   <si>
     <t>remark</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>給与支給明細書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9999年99月</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -130,7 +130,22 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
@@ -138,24 +153,10 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="15"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -255,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,14 +293,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -315,9 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -371,15 +375,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466773</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123636</xdr:rowOff>
+      <xdr:colOff>435361</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>396372</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123636</xdr:rowOff>
+      <xdr:colOff>364960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6093</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -388,8 +392,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4699590" y="430295"/>
-          <a:ext cx="1955404" cy="0"/>
+          <a:off x="4662080" y="381140"/>
+          <a:ext cx="1953661" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -420,15 +424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466087</xdr:colOff>
+      <xdr:colOff>434675</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85550</xdr:rowOff>
+      <xdr:rowOff>97709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>395686</xdr:colOff>
+      <xdr:colOff>364274</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85550</xdr:rowOff>
+      <xdr:rowOff>97709</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -437,8 +441,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4698904" y="392209"/>
-          <a:ext cx="1955404" cy="0"/>
+          <a:off x="4661394" y="347740"/>
+          <a:ext cx="1953661" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -732,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.75" customHeight="1"/>
@@ -746,64 +750,62 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:20" ht="9.75" customHeight="1">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="7"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:20" ht="9.75" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="B3" s="16">
+    <row r="3" spans="1:20" ht="9.75" customHeight="1">
+      <c r="B3" s="18">
         <v>9999999999</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1">
+    <row r="4" spans="1:20" ht="9.75" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -813,21 +815,21 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:20" ht="9.75" customHeight="1">
       <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:20" ht="9.75" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -835,37 +837,30 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="L6" s="12"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="9.75" customHeight="1">
-      <c r="B7" s="20" t="s">
-        <v>10</v>
+    <row r="7" spans="1:20" ht="9.75" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="9" spans="1:20" ht="9.75" customHeight="1">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:20" ht="9.75" customHeight="1">
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1"/>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="9.75" customHeight="1"/>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="9.75" customHeight="1"/>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="9.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M2:O3"/>
     <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:P3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:I3"/>
